--- a/09_MPEC_Bidding_Diagonalization/MatlabCode/V04/Ali Data/Inflexible Consumption.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/MatlabCode/V04/Ali Data/Inflexible Consumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PyomoModels\09_MPEC_Bidding_Diagonalization\MatlabCode\V04\Ali Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F466AC12-4B5B-4830-BFAB-B3A32C71213E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C75319C-A003-413C-B181-F4682BE30651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1261,11 +1261,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF66035-FE3C-4ACE-9935-F38C3DADD015}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B864766-F793-476D-9E5F-9E329F1EA284}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
